--- a/Real/mapa9.xlsx
+++ b/Real/mapa9.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Pandas/Real/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314DED99-9A89-FF4E-AA80-03DD759A1FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1555,8 +1549,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,14 +1613,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1673,7 +1659,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1705,27 +1691,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1757,24 +1725,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1950,14 +1900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +1960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>53505</v>
       </c>
@@ -2063,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>53506</v>
       </c>
@@ -2116,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>53507</v>
       </c>
@@ -2169,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>53508</v>
       </c>
@@ -2222,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>53509</v>
       </c>
@@ -2275,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>53510</v>
       </c>
@@ -2328,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>53511</v>
       </c>
@@ -2381,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>53512</v>
       </c>
@@ -2434,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>53513</v>
       </c>
@@ -2487,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>53514</v>
       </c>
@@ -2540,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>53515</v>
       </c>
@@ -2593,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>53516</v>
       </c>
@@ -2646,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>53517</v>
       </c>
@@ -2699,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>53518</v>
       </c>
@@ -2752,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>53519</v>
       </c>
@@ -2805,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>53520</v>
       </c>
@@ -2858,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>53521</v>
       </c>
@@ -2911,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>53522</v>
       </c>
@@ -2964,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>53523</v>
       </c>
@@ -3017,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>53524</v>
       </c>
@@ -3070,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>53525</v>
       </c>
@@ -3123,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>53526</v>
       </c>
@@ -3176,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>53527</v>
       </c>
@@ -3229,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>53528</v>
       </c>
@@ -3282,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>53529</v>
       </c>
@@ -3335,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>53530</v>
       </c>
@@ -3388,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>53531</v>
       </c>
@@ -3441,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>53532</v>
       </c>
@@ -3494,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>53533</v>
       </c>
@@ -3547,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>53534</v>
       </c>
@@ -3600,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>53535</v>
       </c>
@@ -3653,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>53536</v>
       </c>
@@ -3706,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>53537</v>
       </c>
@@ -3759,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>53538</v>
       </c>
@@ -3812,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>53539</v>
       </c>
@@ -3865,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>53540</v>
       </c>
@@ -3918,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>53541</v>
       </c>
@@ -3971,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>53542</v>
       </c>
@@ -4024,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>53543</v>
       </c>
@@ -4077,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>53544</v>
       </c>
@@ -4130,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>53545</v>
       </c>
@@ -4183,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>53546</v>
       </c>
@@ -4236,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>53547</v>
       </c>
@@ -4289,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>53548</v>
       </c>
@@ -4342,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>53549</v>
       </c>
@@ -4395,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>53550</v>
       </c>
@@ -4448,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>53551</v>
       </c>
@@ -4501,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>53552</v>
       </c>
@@ -4554,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>53553</v>
       </c>
@@ -4607,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>53554</v>
       </c>
@@ -4660,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>53555</v>
       </c>
@@ -4713,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>53562</v>
       </c>
@@ -4769,7 +4719,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>53563</v>
       </c>
@@ -4825,7 +4775,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>53567</v>
       </c>
@@ -4881,7 +4831,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>53675</v>
       </c>
@@ -4937,7 +4887,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>53676</v>
       </c>
@@ -4993,7 +4943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>53709</v>
       </c>
@@ -5049,7 +4999,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>53710</v>
       </c>
@@ -5105,7 +5055,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>53712</v>
       </c>
@@ -5161,7 +5111,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>53713</v>
       </c>
@@ -5217,7 +5167,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>53715</v>
       </c>
@@ -5273,7 +5223,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>53716</v>
       </c>
@@ -5329,7 +5279,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>53719</v>
       </c>
@@ -5385,7 +5335,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>53720</v>
       </c>
@@ -5441,7 +5391,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>53722</v>
       </c>
@@ -5497,7 +5447,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>53723</v>
       </c>
@@ -5553,7 +5503,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>53725</v>
       </c>
@@ -5609,7 +5559,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>53729</v>
       </c>
@@ -5665,7 +5615,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>53730</v>
       </c>
@@ -5721,7 +5671,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>53731</v>
       </c>
@@ -5777,7 +5727,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>53744</v>
       </c>
@@ -5833,7 +5783,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>53745</v>
       </c>
@@ -5889,7 +5839,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>53746</v>
       </c>
@@ -5945,7 +5895,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>53755</v>
       </c>
@@ -6001,7 +5951,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>53756</v>
       </c>
@@ -6057,7 +6007,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>53757</v>
       </c>
@@ -6113,7 +6063,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>53758</v>
       </c>
@@ -6169,7 +6119,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
         <v>53767</v>
       </c>
@@ -6225,7 +6175,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>53768</v>
       </c>
@@ -6281,7 +6231,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
         <v>53769</v>
       </c>
@@ -6337,7 +6287,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
         <v>53770</v>
       </c>
@@ -6393,7 +6343,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
         <v>53771</v>
       </c>
@@ -6449,7 +6399,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
         <v>53777</v>
       </c>
@@ -6505,7 +6455,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
         <v>53780</v>
       </c>
@@ -6561,7 +6511,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
         <v>53782</v>
       </c>
@@ -6617,7 +6567,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
         <v>53910</v>
       </c>
@@ -6673,7 +6623,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
         <v>53911</v>
       </c>
@@ -6729,7 +6679,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
         <v>53912</v>
       </c>
@@ -6785,7 +6735,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
         <v>53913</v>
       </c>
@@ -6841,7 +6791,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
         <v>53914</v>
       </c>
@@ -6897,7 +6847,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
         <v>53915</v>
       </c>
@@ -6953,7 +6903,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
         <v>53916</v>
       </c>
@@ -7009,7 +6959,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" s="1">
         <v>53917</v>
       </c>
@@ -7065,7 +7015,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" s="1">
         <v>53918</v>
       </c>
@@ -7121,7 +7071,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" s="1">
         <v>53920</v>
       </c>
@@ -7177,7 +7127,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
         <v>53958</v>
       </c>
@@ -7233,7 +7183,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
         <v>53962</v>
       </c>
@@ -7289,7 +7239,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
         <v>53963</v>
       </c>
@@ -7345,7 +7295,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
         <v>53964</v>
       </c>
@@ -7401,7 +7351,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
         <v>53967</v>
       </c>
@@ -7457,7 +7407,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
         <v>53994</v>
       </c>
@@ -7513,7 +7463,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
         <v>53995</v>
       </c>
@@ -7569,7 +7519,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
         <v>53997</v>
       </c>
@@ -7625,7 +7575,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
         <v>53998</v>
       </c>
@@ -7681,7 +7631,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
         <v>53999</v>
       </c>
@@ -7737,7 +7687,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
         <v>54000</v>
       </c>
@@ -7793,7 +7743,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
         <v>54002</v>
       </c>
@@ -7849,7 +7799,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
         <v>54024</v>
       </c>
@@ -7905,7 +7855,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
         <v>54025</v>
       </c>
@@ -7961,7 +7911,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
         <v>54070</v>
       </c>
@@ -8017,7 +7967,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
         <v>54111</v>
       </c>
@@ -8073,7 +8023,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
         <v>54114</v>
       </c>
@@ -8129,7 +8079,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" s="1">
         <v>54120</v>
       </c>
@@ -8185,7 +8135,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
         <v>54150</v>
       </c>
@@ -8241,7 +8191,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
         <v>54152</v>
       </c>
@@ -8297,7 +8247,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
         <v>54155</v>
       </c>
@@ -8353,7 +8303,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" s="1">
         <v>54157</v>
       </c>
@@ -8409,7 +8359,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
         <v>54159</v>
       </c>
@@ -8465,7 +8415,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
         <v>54160</v>
       </c>
@@ -8521,7 +8471,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
         <v>54161</v>
       </c>
@@ -8577,7 +8527,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" s="1">
         <v>54163</v>
       </c>
@@ -8633,7 +8583,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" s="1">
         <v>54164</v>
       </c>
@@ -8689,7 +8639,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" s="1">
         <v>54165</v>
       </c>
@@ -8745,7 +8695,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" s="1">
         <v>54166</v>
       </c>
@@ -8801,7 +8751,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" s="1">
         <v>54167</v>
       </c>
@@ -8857,7 +8807,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" s="1">
         <v>54169</v>
       </c>
@@ -8913,7 +8863,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" s="1">
         <v>54170</v>
       </c>
@@ -8969,7 +8919,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18">
       <c r="A129" s="1">
         <v>54209</v>
       </c>
@@ -9025,7 +8975,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18">
       <c r="A130" s="1">
         <v>54211</v>
       </c>
@@ -9081,7 +9031,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18">
       <c r="A131" s="1">
         <v>54239</v>
       </c>
@@ -9137,7 +9087,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18">
       <c r="A132" s="1">
         <v>54240</v>
       </c>
@@ -9193,7 +9143,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18">
       <c r="A133" s="1">
         <v>54244</v>
       </c>
@@ -9249,7 +9199,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18">
       <c r="A134" s="1">
         <v>54245</v>
       </c>
@@ -9305,7 +9255,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18">
       <c r="A135" s="1">
         <v>54246</v>
       </c>
@@ -9361,7 +9311,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18">
       <c r="A136" s="1">
         <v>54247</v>
       </c>
@@ -9417,7 +9367,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18">
       <c r="A137" s="1">
         <v>54257</v>
       </c>
@@ -9473,7 +9423,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18">
       <c r="A138" s="1">
         <v>54258</v>
       </c>
@@ -9529,7 +9479,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18">
       <c r="A139" s="1">
         <v>54260</v>
       </c>
@@ -9585,7 +9535,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18">
       <c r="A140" s="1">
         <v>54267</v>
       </c>
@@ -9641,7 +9591,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18">
       <c r="A141" s="1">
         <v>54268</v>
       </c>
@@ -9697,7 +9647,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18">
       <c r="A142" s="1">
         <v>54269</v>
       </c>
@@ -9753,7 +9703,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18">
       <c r="A143" s="1">
         <v>54270</v>
       </c>
@@ -9809,7 +9759,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18">
       <c r="A144" s="1">
         <v>54271</v>
       </c>
@@ -9865,7 +9815,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" s="1">
         <v>54279</v>
       </c>
@@ -9921,7 +9871,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" s="1">
         <v>54280</v>
       </c>
@@ -9977,7 +9927,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" s="1">
         <v>54282</v>
       </c>
@@ -10033,7 +9983,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" s="1">
         <v>54283</v>
       </c>
@@ -10089,7 +10039,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" s="1">
         <v>54284</v>
       </c>
@@ -10145,7 +10095,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18">
       <c r="A150" s="1">
         <v>54286</v>
       </c>
@@ -10201,7 +10151,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18">
       <c r="A151" s="1">
         <v>54288</v>
       </c>
@@ -10257,7 +10207,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18">
       <c r="A152" s="1">
         <v>54293</v>
       </c>
@@ -10313,7 +10263,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18">
       <c r="A153" s="1">
         <v>54294</v>
       </c>
@@ -10369,7 +10319,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18">
       <c r="A154" s="1">
         <v>54295</v>
       </c>
@@ -10425,7 +10375,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18">
       <c r="A155" s="1">
         <v>54297</v>
       </c>
@@ -10481,7 +10431,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18">
       <c r="A156" s="1">
         <v>54298</v>
       </c>
@@ -10537,7 +10487,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18">
       <c r="A157" s="1">
         <v>54299</v>
       </c>
@@ -10593,7 +10543,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18">
       <c r="A158" s="1">
         <v>54300</v>
       </c>
@@ -10649,7 +10599,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18">
       <c r="A159" s="1">
         <v>54301</v>
       </c>
@@ -10705,7 +10655,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18">
       <c r="A160" s="1">
         <v>54303</v>
       </c>
@@ -10761,7 +10711,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18">
       <c r="A161" s="1">
         <v>54304</v>
       </c>
@@ -10817,7 +10767,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18">
       <c r="A162" s="1">
         <v>54305</v>
       </c>
@@ -10873,7 +10823,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18">
       <c r="A163" s="1">
         <v>54307</v>
       </c>
@@ -10929,7 +10879,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18">
       <c r="A164" s="1">
         <v>54309</v>
       </c>
@@ -10985,7 +10935,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18">
       <c r="A165" s="1">
         <v>54310</v>
       </c>
@@ -11041,7 +10991,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18">
       <c r="A166" s="1">
         <v>54311</v>
       </c>
@@ -11097,7 +11047,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18">
       <c r="A167" s="1">
         <v>54312</v>
       </c>
@@ -11153,7 +11103,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18">
       <c r="A168" s="1">
         <v>54313</v>
       </c>
@@ -11209,7 +11159,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18">
       <c r="A169" s="1">
         <v>54317</v>
       </c>
@@ -11265,7 +11215,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18">
       <c r="A170" s="1">
         <v>54318</v>
       </c>
@@ -11321,7 +11271,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18">
       <c r="A171" s="1">
         <v>54323</v>
       </c>
@@ -11377,7 +11327,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18">
       <c r="A172" s="1">
         <v>54324</v>
       </c>
@@ -11433,7 +11383,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18">
       <c r="A173" s="1">
         <v>54325</v>
       </c>
@@ -11489,7 +11439,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18">
       <c r="A174" s="1">
         <v>54326</v>
       </c>
@@ -11545,7 +11495,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18">
       <c r="A175" s="1">
         <v>54327</v>
       </c>
@@ -11601,7 +11551,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18">
       <c r="A176" s="1">
         <v>54330</v>
       </c>
@@ -11657,7 +11607,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18">
       <c r="A177" s="1">
         <v>54331</v>
       </c>
@@ -11713,7 +11663,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18">
       <c r="A178" s="1">
         <v>54338</v>
       </c>
@@ -11769,7 +11719,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18">
       <c r="A179" s="1">
         <v>54339</v>
       </c>
@@ -11825,7 +11775,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18">
       <c r="A180" s="1">
         <v>54340</v>
       </c>
@@ -11881,7 +11831,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18">
       <c r="A181" s="1">
         <v>54341</v>
       </c>
@@ -11937,7 +11887,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18">
       <c r="A182" s="1">
         <v>54342</v>
       </c>
@@ -11993,7 +11943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18">
       <c r="A183" s="1">
         <v>54343</v>
       </c>
@@ -12049,7 +11999,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18">
       <c r="A184" s="1">
         <v>54344</v>
       </c>
@@ -12105,7 +12055,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18">
       <c r="A185" s="1">
         <v>54345</v>
       </c>
@@ -12161,7 +12111,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18">
       <c r="A186" s="1">
         <v>54346</v>
       </c>
@@ -12217,7 +12167,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18">
       <c r="A187" s="1">
         <v>54348</v>
       </c>
@@ -12273,7 +12223,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18">
       <c r="A188" s="1">
         <v>54351</v>
       </c>
@@ -12329,7 +12279,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18">
       <c r="A189" s="1">
         <v>54354</v>
       </c>
@@ -12385,7 +12335,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18">
       <c r="A190" s="1">
         <v>54355</v>
       </c>
@@ -12441,7 +12391,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18">
       <c r="A191" s="1">
         <v>54356</v>
       </c>
@@ -12497,7 +12447,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18">
       <c r="A192" s="1">
         <v>54358</v>
       </c>
@@ -12553,7 +12503,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18">
       <c r="A193" s="1">
         <v>54359</v>
       </c>
@@ -12609,7 +12559,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18">
       <c r="A194" s="1">
         <v>54360</v>
       </c>
@@ -12665,7 +12615,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18">
       <c r="A195" s="1">
         <v>54362</v>
       </c>
@@ -12721,7 +12671,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18">
       <c r="A196" s="1">
         <v>54367</v>
       </c>
@@ -12777,7 +12727,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="A197" s="1">
         <v>54370</v>
       </c>
@@ -12833,7 +12783,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18">
       <c r="A198" s="1">
         <v>54371</v>
       </c>
@@ -12889,7 +12839,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18">
       <c r="A199" s="1">
         <v>54372</v>
       </c>
@@ -12945,7 +12895,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18">
       <c r="A200" s="1">
         <v>54373</v>
       </c>
@@ -13001,7 +12951,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18">
       <c r="A201" s="1">
         <v>54374</v>
       </c>
@@ -13057,7 +13007,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18">
       <c r="A202" s="1">
         <v>54377</v>
       </c>
@@ -13113,7 +13063,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18">
       <c r="A203" s="1">
         <v>54378</v>
       </c>
@@ -13169,7 +13119,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18">
       <c r="A204" s="1">
         <v>54383</v>
       </c>
@@ -13225,7 +13175,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18">
       <c r="A205" s="1">
         <v>54384</v>
       </c>
@@ -13281,7 +13231,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18">
       <c r="A206" s="1">
         <v>54387</v>
       </c>
@@ -13337,7 +13287,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18">
       <c r="A207" s="1">
         <v>54388</v>
       </c>
@@ -13393,7 +13343,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18">
       <c r="A208" s="1">
         <v>54389</v>
       </c>
@@ -13449,7 +13399,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18">
       <c r="A209" s="1">
         <v>54393</v>
       </c>
@@ -13505,7 +13455,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18">
       <c r="A210" s="1">
         <v>54394</v>
       </c>
@@ -13561,7 +13511,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18">
       <c r="A211" s="1">
         <v>54395</v>
       </c>
@@ -13617,7 +13567,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18">
       <c r="A212" s="1">
         <v>54401</v>
       </c>
@@ -13673,7 +13623,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18">
       <c r="A213" s="1">
         <v>54402</v>
       </c>
@@ -13729,7 +13679,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18">
       <c r="A214" s="1">
         <v>54403</v>
       </c>
@@ -13785,7 +13735,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18">
       <c r="A215" s="1">
         <v>54404</v>
       </c>
@@ -13841,7 +13791,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18">
       <c r="A216" s="1">
         <v>54405</v>
       </c>
@@ -13897,7 +13847,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18">
       <c r="A217" s="1">
         <v>54424</v>
       </c>
@@ -13953,7 +13903,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18">
       <c r="A218" s="1">
         <v>54425</v>
       </c>
@@ -14009,7 +13959,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18">
       <c r="A219" s="1">
         <v>54426</v>
       </c>
@@ -14065,7 +14015,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18">
       <c r="A220" s="1">
         <v>54432</v>
       </c>
@@ -14121,7 +14071,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18">
       <c r="A221" s="1">
         <v>54433</v>
       </c>
@@ -14177,7 +14127,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18">
       <c r="A222" s="1">
         <v>54434</v>
       </c>
@@ -14233,7 +14183,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18">
       <c r="A223" s="1">
         <v>54435</v>
       </c>
@@ -14289,7 +14239,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18">
       <c r="A224" s="1">
         <v>54436</v>
       </c>
@@ -14345,7 +14295,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18">
       <c r="A225" s="1">
         <v>54437</v>
       </c>
@@ -14401,7 +14351,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18">
       <c r="A226" s="1">
         <v>54438</v>
       </c>
@@ -14457,7 +14407,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18">
       <c r="A227" s="1">
         <v>54439</v>
       </c>
@@ -14513,7 +14463,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18">
       <c r="A228" s="1">
         <v>54440</v>
       </c>
@@ -14569,7 +14519,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18">
       <c r="A229" s="1">
         <v>54449</v>
       </c>
@@ -14625,7 +14575,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18">
       <c r="A230" s="1">
         <v>54450</v>
       </c>
@@ -14681,7 +14631,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18">
       <c r="A231" s="1">
         <v>54451</v>
       </c>
@@ -14737,7 +14687,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18">
       <c r="A232" s="1">
         <v>54453</v>
       </c>
@@ -14793,7 +14743,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18">
       <c r="A233" s="1">
         <v>54454</v>
       </c>
@@ -14849,7 +14799,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18">
       <c r="A234" s="1">
         <v>54456</v>
       </c>
@@ -14905,7 +14855,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18">
       <c r="A235" s="1">
         <v>54457</v>
       </c>
@@ -14961,7 +14911,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18">
       <c r="A236" s="1">
         <v>54458</v>
       </c>
@@ -15017,7 +14967,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18">
       <c r="A237" s="1">
         <v>54459</v>
       </c>
@@ -15073,7 +15023,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18">
       <c r="A238" s="1">
         <v>54460</v>
       </c>
@@ -15129,7 +15079,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18">
       <c r="A239" s="1">
         <v>54461</v>
       </c>
@@ -15185,7 +15135,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18">
       <c r="A240" s="1">
         <v>54462</v>
       </c>
@@ -15241,7 +15191,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18">
       <c r="A241" s="1">
         <v>54463</v>
       </c>
@@ -15297,7 +15247,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18">
       <c r="A242" s="1">
         <v>54464</v>
       </c>
@@ -15353,7 +15303,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18">
       <c r="A243" s="1">
         <v>54465</v>
       </c>
@@ -15409,7 +15359,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18">
       <c r="A244" s="1">
         <v>54466</v>
       </c>
@@ -15465,7 +15415,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18">
       <c r="A245" s="1">
         <v>54467</v>
       </c>
@@ -15521,7 +15471,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18">
       <c r="A246" s="1">
         <v>54468</v>
       </c>
@@ -15577,7 +15527,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18">
       <c r="A247" s="1">
         <v>54471</v>
       </c>
@@ -15633,7 +15583,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18">
       <c r="A248" s="1">
         <v>54472</v>
       </c>
@@ -15689,7 +15639,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18">
       <c r="A249" s="1">
         <v>54474</v>
       </c>
@@ -15745,7 +15695,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18">
       <c r="A250" s="1">
         <v>54480</v>
       </c>
@@ -15801,7 +15751,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18">
       <c r="A251" s="1">
         <v>54481</v>
       </c>
@@ -15857,7 +15807,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18">
       <c r="A252" s="1">
         <v>54482</v>
       </c>
@@ -15913,7 +15863,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18">
       <c r="A253" s="1">
         <v>54484</v>
       </c>
@@ -15969,7 +15919,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18">
       <c r="A254" s="1">
         <v>54485</v>
       </c>
@@ -16025,7 +15975,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18">
       <c r="A255" s="1">
         <v>54493</v>
       </c>
@@ -16081,7 +16031,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18">
       <c r="A256" s="1">
         <v>54494</v>
       </c>
@@ -16137,7 +16087,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18">
       <c r="A257" s="1">
         <v>54498</v>
       </c>
@@ -16193,7 +16143,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18">
       <c r="A258" s="1">
         <v>54502</v>
       </c>
@@ -16249,7 +16199,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18">
       <c r="A259" s="1">
         <v>54503</v>
       </c>
@@ -16305,7 +16255,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18">
       <c r="A260" s="1">
         <v>54504</v>
       </c>
@@ -16361,7 +16311,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18">
       <c r="A261" s="1">
         <v>54510</v>
       </c>
@@ -16417,7 +16367,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18">
       <c r="A262" s="1">
         <v>54512</v>
       </c>
@@ -16473,7 +16423,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18">
       <c r="A263" s="1">
         <v>54513</v>
       </c>
@@ -16529,7 +16479,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18">
       <c r="A264" s="1">
         <v>54514</v>
       </c>
@@ -16585,7 +16535,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18">
       <c r="A265" s="1">
         <v>54516</v>
       </c>
@@ -16641,7 +16591,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18">
       <c r="A266" s="1">
         <v>54517</v>
       </c>
@@ -16697,7 +16647,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18">
       <c r="A267" s="1">
         <v>54521</v>
       </c>
@@ -16753,7 +16703,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18">
       <c r="A268" s="1">
         <v>54522</v>
       </c>
@@ -16809,7 +16759,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18">
       <c r="A269" s="1">
         <v>54523</v>
       </c>
@@ -16865,7 +16815,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18">
       <c r="A270" s="1">
         <v>54524</v>
       </c>
@@ -16921,7 +16871,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18">
       <c r="A271" s="1">
         <v>54525</v>
       </c>
@@ -16977,7 +16927,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18">
       <c r="A272" s="1">
         <v>54526</v>
       </c>
@@ -17033,7 +16983,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18">
       <c r="A273" s="1">
         <v>54527</v>
       </c>
@@ -17089,7 +17039,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18">
       <c r="A274" s="1">
         <v>54617</v>
       </c>
@@ -17145,7 +17095,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18">
       <c r="A275" s="1">
         <v>54622</v>
       </c>
@@ -17201,7 +17151,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18">
       <c r="A276" s="1">
         <v>54623</v>
       </c>
@@ -17257,7 +17207,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18">
       <c r="A277" s="1">
         <v>54624</v>
       </c>
@@ -17313,7 +17263,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18">
       <c r="A278" s="1">
         <v>54640</v>
       </c>
@@ -17369,7 +17319,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18">
       <c r="A279" s="1">
         <v>54642</v>
       </c>
@@ -17425,7 +17375,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18">
       <c r="A280" s="1">
         <v>54643</v>
       </c>
@@ -17481,7 +17431,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18">
       <c r="A281" s="1">
         <v>54677</v>
       </c>
@@ -17537,7 +17487,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18">
       <c r="A282" s="1">
         <v>54678</v>
       </c>
@@ -17593,7 +17543,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18">
       <c r="A283" s="1">
         <v>54679</v>
       </c>
@@ -17649,7 +17599,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18">
       <c r="A284" s="1">
         <v>54680</v>
       </c>
@@ -17705,7 +17655,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18">
       <c r="A285" s="1">
         <v>54681</v>
       </c>
@@ -17761,7 +17711,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18">
       <c r="A286" s="1">
         <v>54682</v>
       </c>
@@ -17817,7 +17767,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18">
       <c r="A287" s="1">
         <v>54683</v>
       </c>
@@ -17873,7 +17823,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18">
       <c r="A288" s="1">
         <v>54684</v>
       </c>
@@ -17929,7 +17879,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18">
       <c r="A289" s="1">
         <v>54685</v>
       </c>
@@ -17985,7 +17935,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18">
       <c r="A290" s="1">
         <v>54686</v>
       </c>
@@ -18041,7 +17991,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18">
       <c r="A291" s="1">
         <v>54687</v>
       </c>
@@ -18097,7 +18047,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18">
       <c r="A292" s="1">
         <v>54688</v>
       </c>
@@ -18153,7 +18103,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18">
       <c r="A293" s="1">
         <v>54689</v>
       </c>
@@ -18209,7 +18159,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18">
       <c r="A294" s="1">
         <v>54691</v>
       </c>
@@ -18265,7 +18215,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18">
       <c r="A295" s="1">
         <v>54692</v>
       </c>
@@ -18321,7 +18271,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18">
       <c r="A296" s="1">
         <v>54694</v>
       </c>
@@ -18377,7 +18327,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18">
       <c r="A297" s="1">
         <v>54695</v>
       </c>
@@ -18433,7 +18383,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18">
       <c r="A298" s="1">
         <v>54697</v>
       </c>
@@ -18489,7 +18439,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18">
       <c r="A299" s="1">
         <v>54700</v>
       </c>
@@ -18545,7 +18495,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18">
       <c r="A300" s="1">
         <v>54718</v>
       </c>
@@ -18601,7 +18551,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18">
       <c r="A301" s="1">
         <v>54899</v>
       </c>
@@ -18657,7 +18607,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18">
       <c r="A302" s="1">
         <v>54900</v>
       </c>
@@ -18713,7 +18663,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18">
       <c r="A303" s="1">
         <v>54902</v>
       </c>
@@ -18769,7 +18719,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18">
       <c r="A304" s="1">
         <v>54904</v>
       </c>
@@ -18825,7 +18775,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18">
       <c r="A305" s="1">
         <v>54905</v>
       </c>
@@ -18881,7 +18831,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18">
       <c r="A306" s="1">
         <v>54921</v>
       </c>
@@ -18937,7 +18887,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18">
       <c r="A307" s="1">
         <v>54938</v>
       </c>
@@ -18993,7 +18943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18">
       <c r="A308" s="1">
         <v>54939</v>
       </c>
@@ -19049,7 +18999,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18">
       <c r="A309" s="1">
         <v>54940</v>
       </c>
@@ -19105,7 +19055,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18">
       <c r="A310" s="1">
         <v>54942</v>
       </c>
@@ -19161,7 +19111,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18">
       <c r="A311" s="1">
         <v>54943</v>
       </c>
@@ -19217,7 +19167,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18">
       <c r="A312" s="1">
         <v>54944</v>
       </c>
@@ -19273,7 +19223,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18">
       <c r="A313" s="1">
         <v>54946</v>
       </c>
@@ -19329,7 +19279,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18">
       <c r="A314" s="1">
         <v>54947</v>
       </c>
@@ -19385,7 +19335,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18">
       <c r="A315" s="1">
         <v>54949</v>
       </c>
@@ -19441,7 +19391,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18">
       <c r="A316" s="1">
         <v>54952</v>
       </c>
@@ -19497,7 +19447,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18">
       <c r="A317" s="1">
         <v>54961</v>
       </c>
@@ -19553,7 +19503,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18">
       <c r="A318" s="1">
         <v>54962</v>
       </c>
@@ -19609,7 +19559,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18">
       <c r="A319" s="1">
         <v>54963</v>
       </c>
@@ -19665,7 +19615,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18">
       <c r="A320" s="1">
         <v>54964</v>
       </c>
@@ -19721,7 +19671,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18">
       <c r="A321" s="1">
         <v>54965</v>
       </c>
@@ -19777,7 +19727,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18">
       <c r="A322" s="1">
         <v>54966</v>
       </c>
@@ -19833,7 +19783,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18">
       <c r="A323" s="1">
         <v>54967</v>
       </c>
@@ -19889,7 +19839,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18">
       <c r="A324" s="1">
         <v>54968</v>
       </c>
@@ -19945,7 +19895,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18">
       <c r="A325" s="1">
         <v>54969</v>
       </c>
@@ -20001,7 +19951,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18">
       <c r="A326" s="1">
         <v>54970</v>
       </c>
@@ -20057,7 +20007,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18">
       <c r="A327" s="1">
         <v>54971</v>
       </c>
@@ -20113,7 +20063,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18">
       <c r="A328" s="1">
         <v>54972</v>
       </c>
@@ -20169,7 +20119,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18">
       <c r="A329" s="1">
         <v>55032</v>
       </c>
@@ -20225,7 +20175,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18">
       <c r="A330" s="1">
         <v>55033</v>
       </c>
@@ -20281,7 +20231,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18">
       <c r="A331" s="1">
         <v>55038</v>
       </c>
@@ -20337,7 +20287,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18">
       <c r="A332" s="1">
         <v>55039</v>
       </c>
@@ -20393,7 +20343,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18">
       <c r="A333" s="1">
         <v>55040</v>
       </c>
@@ -20449,7 +20399,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18">
       <c r="A334" s="1">
         <v>55041</v>
       </c>
@@ -20505,7 +20455,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18">
       <c r="A335" s="1">
         <v>55051</v>
       </c>
@@ -20561,7 +20511,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18">
       <c r="A336" s="1">
         <v>55057</v>
       </c>
@@ -20617,7 +20567,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18">
       <c r="A337" s="1">
         <v>55058</v>
       </c>
@@ -20673,7 +20623,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18">
       <c r="A338" s="1">
         <v>55059</v>
       </c>
@@ -20729,7 +20679,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18">
       <c r="A339" s="1">
         <v>55060</v>
       </c>
@@ -20785,7 +20735,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18">
       <c r="A340" s="1">
         <v>55061</v>
       </c>
@@ -20841,7 +20791,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18">
       <c r="A341" s="1">
         <v>55066</v>
       </c>
@@ -20897,7 +20847,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18">
       <c r="A342" s="1">
         <v>55067</v>
       </c>
@@ -20953,7 +20903,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18">
       <c r="A343" s="1">
         <v>55068</v>
       </c>
@@ -21009,7 +20959,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18">
       <c r="A344" s="1">
         <v>55069</v>
       </c>
@@ -21065,7 +21015,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18">
       <c r="A345" s="1">
         <v>55070</v>
       </c>
@@ -21121,7 +21071,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18">
       <c r="A346" s="1">
         <v>55097</v>
       </c>
@@ -21177,7 +21127,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18">
       <c r="A347" s="1">
         <v>55098</v>
       </c>
@@ -21233,7 +21183,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18">
       <c r="A348" s="1">
         <v>55099</v>
       </c>
@@ -21289,7 +21239,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18">
       <c r="A349" s="1">
         <v>55100</v>
       </c>
@@ -21345,7 +21295,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18">
       <c r="A350" s="1">
         <v>55101</v>
       </c>
@@ -21401,7 +21351,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18">
       <c r="A351" s="1">
         <v>55102</v>
       </c>
@@ -21457,7 +21407,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18">
       <c r="A352" s="1">
         <v>55103</v>
       </c>
@@ -21513,7 +21463,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18">
       <c r="A353" s="1">
         <v>55104</v>
       </c>
@@ -21569,7 +21519,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18">
       <c r="A354" s="1">
         <v>55105</v>
       </c>
@@ -21625,7 +21575,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18">
       <c r="A355" s="1">
         <v>55107</v>
       </c>
@@ -21681,7 +21631,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18">
       <c r="A356" s="1">
         <v>55108</v>
       </c>
@@ -21737,7 +21687,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18">
       <c r="A357" s="1">
         <v>55109</v>
       </c>
@@ -21793,7 +21743,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18">
       <c r="A358" s="1">
         <v>55118</v>
       </c>
@@ -21849,7 +21799,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18">
       <c r="A359" s="1">
         <v>55137</v>
       </c>
@@ -21905,7 +21855,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18">
       <c r="A360" s="1">
         <v>55138</v>
       </c>
@@ -21961,7 +21911,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18">
       <c r="A361" s="1">
         <v>55139</v>
       </c>
@@ -22017,7 +21967,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18">
       <c r="A362" s="1">
         <v>55141</v>
       </c>
@@ -22073,7 +22023,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18">
       <c r="A363" s="1">
         <v>55142</v>
       </c>
@@ -22129,7 +22079,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18">
       <c r="A364" s="1">
         <v>55143</v>
       </c>
@@ -22185,7 +22135,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18">
       <c r="A365" s="1">
         <v>55144</v>
       </c>
@@ -22241,7 +22191,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18">
       <c r="A366" s="1">
         <v>55145</v>
       </c>
@@ -22297,7 +22247,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18">
       <c r="A367" s="1">
         <v>55146</v>
       </c>
@@ -22353,7 +22303,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18">
       <c r="A368" s="1">
         <v>55147</v>
       </c>
@@ -22409,7 +22359,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18">
       <c r="A369" s="1">
         <v>55148</v>
       </c>
@@ -22465,7 +22415,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18">
       <c r="A370" s="1">
         <v>55149</v>
       </c>
@@ -22521,7 +22471,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18">
       <c r="A371" s="1">
         <v>55150</v>
       </c>
@@ -22577,7 +22527,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18">
       <c r="A372" s="1">
         <v>55151</v>
       </c>
@@ -22633,7 +22583,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18">
       <c r="A373" s="1">
         <v>55152</v>
       </c>
@@ -22689,7 +22639,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18">
       <c r="A374" s="1">
         <v>55153</v>
       </c>
@@ -22745,7 +22695,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18">
       <c r="A375" s="1">
         <v>55200</v>
       </c>
@@ -22801,7 +22751,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18">
       <c r="A376" s="1">
         <v>55225</v>
       </c>
@@ -22857,7 +22807,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18">
       <c r="A377" s="1">
         <v>55226</v>
       </c>
@@ -22913,7 +22863,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18">
       <c r="A378" s="1">
         <v>55227</v>
       </c>
@@ -22969,7 +22919,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18">
       <c r="A379" s="1">
         <v>55228</v>
       </c>
@@ -23025,7 +22975,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18">
       <c r="A380" s="1">
         <v>55229</v>
       </c>
@@ -23081,7 +23031,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18">
       <c r="A381" s="1">
         <v>55230</v>
       </c>
@@ -23137,7 +23087,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18">
       <c r="A382" s="1">
         <v>55232</v>
       </c>
@@ -23193,7 +23143,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18">
       <c r="A383" s="1">
         <v>55233</v>
       </c>
@@ -23249,7 +23199,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18">
       <c r="A384" s="1">
         <v>55235</v>
       </c>
@@ -23305,7 +23255,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18">
       <c r="A385" s="1">
         <v>55236</v>
       </c>
@@ -23361,7 +23311,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18">
       <c r="A386" s="1">
         <v>55237</v>
       </c>
@@ -23417,7 +23367,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18">
       <c r="A387" s="1">
         <v>55238</v>
       </c>
@@ -23473,7 +23423,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18">
       <c r="A388" s="1">
         <v>55241</v>
       </c>
@@ -23529,7 +23479,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:18">
       <c r="A389" s="1">
         <v>55246</v>
       </c>
@@ -23585,7 +23535,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18">
       <c r="A390" s="1">
         <v>55250</v>
       </c>
@@ -23641,7 +23591,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18">
       <c r="A391" s="1">
         <v>55251</v>
       </c>
@@ -23697,7 +23647,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:18">
       <c r="A392" s="1">
         <v>55252</v>
       </c>
@@ -23753,7 +23703,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:18">
       <c r="A393" s="1">
         <v>55258</v>
       </c>
@@ -23809,7 +23759,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:18">
       <c r="A394" s="1">
         <v>55259</v>
       </c>
@@ -23865,7 +23815,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:18">
       <c r="A395" s="1">
         <v>55272</v>
       </c>
@@ -23921,7 +23871,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:18">
       <c r="A396" s="1">
         <v>55273</v>
       </c>
@@ -23977,7 +23927,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:18">
       <c r="A397" s="1">
         <v>55274</v>
       </c>
@@ -24033,7 +23983,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:18">
       <c r="A398" s="1">
         <v>55277</v>
       </c>
@@ -24089,7 +24039,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:18">
       <c r="A399" s="1">
         <v>55282</v>
       </c>
@@ -24145,7 +24095,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:18">
       <c r="A400" s="1">
         <v>55283</v>
       </c>
@@ -24201,7 +24151,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:18">
       <c r="A401" s="1">
         <v>55284</v>
       </c>
@@ -24257,7 +24207,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:18">
       <c r="A402" s="1">
         <v>55285</v>
       </c>
@@ -24313,7 +24263,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:18">
       <c r="A403" s="1">
         <v>55286</v>
       </c>
@@ -24369,7 +24319,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:18">
       <c r="A404" s="1">
         <v>55287</v>
       </c>
@@ -24425,7 +24375,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:18">
       <c r="A405" s="1">
         <v>55288</v>
       </c>
@@ -24481,7 +24431,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:18">
       <c r="A406" s="1">
         <v>55289</v>
       </c>
@@ -24537,7 +24487,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:18">
       <c r="A407" s="1">
         <v>55290</v>
       </c>
@@ -24593,7 +24543,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:18">
       <c r="A408" s="1">
         <v>55291</v>
       </c>
@@ -24649,7 +24599,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:18">
       <c r="A409" s="1">
         <v>55292</v>
       </c>
@@ -24705,7 +24655,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:18">
       <c r="A410" s="1">
         <v>55293</v>
       </c>
@@ -24761,7 +24711,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:18">
       <c r="A411" s="1">
         <v>55309</v>
       </c>
@@ -24817,7 +24767,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:18">
       <c r="A412" s="1">
         <v>55310</v>
       </c>
@@ -24873,7 +24823,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:18">
       <c r="A413" s="1">
         <v>55321</v>
       </c>
@@ -24929,7 +24879,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:18">
       <c r="A414" s="1">
         <v>55322</v>
       </c>
@@ -24985,7 +24935,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:18">
       <c r="A415" s="1">
         <v>55323</v>
       </c>
@@ -25041,7 +24991,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:18">
       <c r="A416" s="1">
         <v>55324</v>
       </c>
@@ -25097,7 +25047,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:18">
       <c r="A417" s="1">
         <v>55325</v>
       </c>
@@ -25153,7 +25103,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:18">
       <c r="A418" s="1">
         <v>55326</v>
       </c>
@@ -25209,7 +25159,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:18">
       <c r="A419" s="1">
         <v>55348</v>
       </c>
@@ -25265,7 +25215,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:18">
       <c r="A420" s="1">
         <v>55349</v>
       </c>
@@ -25321,7 +25271,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:18">
       <c r="A421" s="1">
         <v>55432</v>
       </c>
@@ -25377,7 +25327,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:18">
       <c r="A422" s="1">
         <v>55435</v>
       </c>
@@ -25433,7 +25383,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:18">
       <c r="A423" s="1">
         <v>55436</v>
       </c>
@@ -25489,7 +25439,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:18">
       <c r="A424" s="1">
         <v>55437</v>
       </c>
@@ -25545,7 +25495,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:18">
       <c r="A425" s="1">
         <v>55438</v>
       </c>
@@ -25601,7 +25551,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:18">
       <c r="A426" s="1">
         <v>55603</v>
       </c>
@@ -25657,7 +25607,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:18">
       <c r="A427" s="1">
         <v>55605</v>
       </c>
@@ -25713,7 +25663,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:18">
       <c r="A428" s="1">
         <v>55607</v>
       </c>
@@ -25769,7 +25719,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:18">
       <c r="A429" s="1">
         <v>55608</v>
       </c>
@@ -25825,7 +25775,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:18">
       <c r="A430" s="1">
         <v>55613</v>
       </c>
@@ -25881,7 +25831,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:18">
       <c r="A431" s="1">
         <v>55615</v>
       </c>
@@ -25937,7 +25887,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:18">
       <c r="A432" s="1">
         <v>55616</v>
       </c>
@@ -25993,7 +25943,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:18">
       <c r="A433" s="1">
         <v>55618</v>
       </c>
@@ -26049,7 +25999,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:18">
       <c r="A434" s="1">
         <v>55619</v>
       </c>
@@ -26105,7 +26055,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:18">
       <c r="A435" s="1">
         <v>55630</v>
       </c>
@@ -26161,7 +26111,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:18">
       <c r="A436" s="1">
         <v>55632</v>
       </c>
@@ -26217,7 +26167,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:18">
       <c r="A437" s="1">
         <v>55633</v>
       </c>
@@ -26273,7 +26223,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:18">
       <c r="A438" s="1">
         <v>55634</v>
       </c>
@@ -26329,7 +26279,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:18">
       <c r="A439" s="1">
         <v>55635</v>
       </c>
@@ -26385,7 +26335,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:18">
       <c r="A440" s="1">
         <v>55636</v>
       </c>
@@ -26441,7 +26391,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:18">
       <c r="A441" s="1">
         <v>55638</v>
       </c>
@@ -26497,7 +26447,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:18">
       <c r="A442" s="1">
         <v>55639</v>
       </c>
@@ -26553,7 +26503,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:18">
       <c r="A443" s="1">
         <v>55641</v>
       </c>
@@ -26609,7 +26559,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:18">
       <c r="A444" s="1">
         <v>55656</v>
       </c>
@@ -26665,7 +26615,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:18">
       <c r="A445" s="1">
         <v>55657</v>
       </c>
@@ -26721,7 +26671,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:18">
       <c r="A446" s="1">
         <v>55658</v>
       </c>
@@ -26777,7 +26727,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:18">
       <c r="A447" s="1">
         <v>55661</v>
       </c>
@@ -26833,7 +26783,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:18">
       <c r="A448" s="1">
         <v>55666</v>
       </c>
@@ -26889,7 +26839,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:18">
       <c r="A449" s="1">
         <v>55668</v>
       </c>
@@ -26945,7 +26895,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:18">
       <c r="A450" s="1">
         <v>55669</v>
       </c>
@@ -27001,7 +26951,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:18">
       <c r="A451" s="1">
         <v>55697</v>
       </c>
@@ -27057,7 +27007,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:18">
       <c r="A452" s="1">
         <v>55698</v>
       </c>
@@ -27113,7 +27063,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:18">
       <c r="A453" s="1">
         <v>55699</v>
       </c>
@@ -27169,7 +27119,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:18">
       <c r="A454" s="1">
         <v>55701</v>
       </c>
@@ -27225,7 +27175,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:18">
       <c r="A455" s="1">
         <v>55710</v>
       </c>
@@ -27281,7 +27231,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:18">
       <c r="A456" s="1">
         <v>55950</v>
       </c>
@@ -27337,7 +27287,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:18">
       <c r="A457" s="1">
         <v>55951</v>
       </c>
@@ -27393,7 +27343,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:18">
       <c r="A458" s="1">
         <v>55952</v>
       </c>
@@ -27449,7 +27399,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:18">
       <c r="A459" s="1">
         <v>55954</v>
       </c>
@@ -27505,7 +27455,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:18">
       <c r="A460" s="1">
         <v>55955</v>
       </c>
@@ -27561,7 +27511,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:18">
       <c r="A461" s="1">
         <v>55993</v>
       </c>
@@ -27617,7 +27567,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:18">
       <c r="A462" s="1">
         <v>55994</v>
       </c>
@@ -27673,7 +27623,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:18">
       <c r="A463" s="1">
         <v>55995</v>
       </c>
@@ -27729,7 +27679,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:18">
       <c r="A464" s="1">
         <v>55996</v>
       </c>
@@ -27785,7 +27735,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:18">
       <c r="A465" s="1">
         <v>55997</v>
       </c>
@@ -27841,7 +27791,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:18">
       <c r="A466" s="1">
         <v>55998</v>
       </c>
@@ -27897,7 +27847,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:18">
       <c r="A467" s="1">
         <v>55999</v>
       </c>
@@ -27953,7 +27903,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:18">
       <c r="A468" s="1">
         <v>56000</v>
       </c>
@@ -28009,7 +27959,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:18">
       <c r="A469" s="1">
         <v>56001</v>
       </c>
@@ -28065,7 +28015,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:18">
       <c r="A470" s="1">
         <v>56002</v>
       </c>
@@ -28121,7 +28071,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:18">
       <c r="A471" s="1">
         <v>56003</v>
       </c>
@@ -28177,7 +28127,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:18">
       <c r="A472" s="1">
         <v>56004</v>
       </c>
@@ -28233,7 +28183,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:18">
       <c r="A473" s="1">
         <v>56005</v>
       </c>
@@ -28289,7 +28239,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:18">
       <c r="A474" s="1">
         <v>56006</v>
       </c>
@@ -28345,7 +28295,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:18">
       <c r="A475" s="1">
         <v>56010</v>
       </c>
@@ -28401,7 +28351,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:18">
       <c r="A476" s="1">
         <v>56011</v>
       </c>
@@ -28457,7 +28407,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:18">
       <c r="A477" s="1">
         <v>56012</v>
       </c>
@@ -28513,7 +28463,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:18">
       <c r="A478" s="1">
         <v>56013</v>
       </c>
@@ -28569,7 +28519,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:18">
       <c r="A479" s="1">
         <v>56014</v>
       </c>
@@ -28625,7 +28575,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:18">
       <c r="A480" s="1">
         <v>56020</v>
       </c>
@@ -28681,7 +28631,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:18">
       <c r="A481" s="1">
         <v>56021</v>
       </c>
@@ -28737,7 +28687,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:18">
       <c r="A482" s="1">
         <v>56022</v>
       </c>
@@ -28793,7 +28743,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:18">
       <c r="A483" s="1">
         <v>56023</v>
       </c>
@@ -28849,7 +28799,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:18">
       <c r="A484" s="1">
         <v>56030</v>
       </c>
@@ -28905,7 +28855,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:18">
       <c r="A485" s="1">
         <v>56031</v>
       </c>
@@ -28961,7 +28911,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:18">
       <c r="A486" s="1">
         <v>56032</v>
       </c>
@@ -29017,7 +28967,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:18">
       <c r="A487" s="1">
         <v>56033</v>
       </c>
@@ -29073,7 +29023,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:18">
       <c r="A488" s="1">
         <v>56034</v>
       </c>
@@ -29129,7 +29079,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:18">
       <c r="A489" s="1">
         <v>56035</v>
       </c>
@@ -29185,7 +29135,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:18">
       <c r="A490" s="1">
         <v>56047</v>
       </c>
@@ -29241,7 +29191,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:18">
       <c r="A491" s="1">
         <v>56049</v>
       </c>
@@ -29297,7 +29247,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:18">
       <c r="A492" s="1">
         <v>56053</v>
       </c>
@@ -29353,7 +29303,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:18">
       <c r="A493" s="1">
         <v>56056</v>
       </c>
@@ -29409,7 +29359,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:18">
       <c r="A494" s="1">
         <v>56057</v>
       </c>
@@ -29465,7 +29415,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:18">
       <c r="A495" s="1">
         <v>56058</v>
       </c>
@@ -29521,7 +29471,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:18">
       <c r="A496" s="1">
         <v>56065</v>
       </c>
@@ -29577,7 +29527,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18">
       <c r="A497" s="1">
         <v>56067</v>
       </c>
@@ -29633,7 +29583,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18">
       <c r="A498" s="1">
         <v>56119</v>
       </c>
@@ -29689,7 +29639,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18">
       <c r="A499" s="1">
         <v>56120</v>
       </c>
@@ -29745,7 +29695,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18">
       <c r="A500" s="1">
         <v>56121</v>
       </c>
@@ -29801,7 +29751,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:18">
       <c r="A501" s="1">
         <v>56122</v>
       </c>
@@ -29857,7 +29807,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:18">
       <c r="A502" s="1">
         <v>56123</v>
       </c>
@@ -29913,7 +29863,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:18">
       <c r="A503" s="1">
         <v>56124</v>
       </c>
@@ -29969,7 +29919,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:18">
       <c r="A504" s="1">
         <v>56125</v>
       </c>
@@ -30025,7 +29975,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:18">
       <c r="A505" s="1">
         <v>56126</v>
       </c>
@@ -30081,7 +30031,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:18">
       <c r="A506" s="1">
         <v>56160</v>
       </c>
@@ -30137,7 +30087,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:18">
       <c r="A507" s="1">
         <v>56167</v>
       </c>
@@ -30193,7 +30143,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:18">
       <c r="A508" s="1">
         <v>56170</v>
       </c>
@@ -30249,7 +30199,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:18">
       <c r="A509" s="1">
         <v>56171</v>
       </c>
@@ -30305,7 +30255,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:18">
       <c r="A510" s="1">
         <v>56172</v>
       </c>
@@ -30361,7 +30311,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:18">
       <c r="A511" s="1">
         <v>56174</v>
       </c>
@@ -30417,7 +30367,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:18">
       <c r="A512" s="1">
         <v>56207</v>
       </c>
@@ -30473,7 +30423,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:18">
       <c r="A513" s="1">
         <v>56265</v>
       </c>
@@ -30529,7 +30479,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:18">
       <c r="A514" s="1">
         <v>56266</v>
       </c>
@@ -30585,7 +30535,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:18">
       <c r="A515" s="1">
         <v>56267</v>
       </c>
@@ -30641,7 +30591,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:18">
       <c r="A516" s="1">
         <v>56268</v>
       </c>
@@ -30697,7 +30647,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:18">
       <c r="A517" s="1">
         <v>56269</v>
       </c>
@@ -30753,7 +30703,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:18">
       <c r="A518" s="1">
         <v>56270</v>
       </c>
@@ -30809,7 +30759,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:18">
       <c r="A519" s="1">
         <v>56271</v>
       </c>
@@ -30865,7 +30815,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:18">
       <c r="A520" s="1">
         <v>56272</v>
       </c>
@@ -30921,7 +30871,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:18">
       <c r="A521" s="1">
         <v>56273</v>
       </c>
@@ -30977,7 +30927,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:18">
       <c r="A522" s="1">
         <v>56274</v>
       </c>
@@ -31033,7 +30983,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:18">
       <c r="A523" s="1">
         <v>56275</v>
       </c>
@@ -31089,7 +31039,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:18">
       <c r="A524" s="1">
         <v>56276</v>
       </c>
@@ -31145,7 +31095,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:18">
       <c r="A525" s="1">
         <v>56277</v>
       </c>
@@ -31201,7 +31151,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:18">
       <c r="A526" s="1">
         <v>56278</v>
       </c>
@@ -31257,7 +31207,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:18">
       <c r="A527" s="1">
         <v>56279</v>
       </c>
@@ -31313,7 +31263,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:18">
       <c r="A528" s="1">
         <v>56280</v>
       </c>
@@ -31369,7 +31319,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:18">
       <c r="A529" s="1">
         <v>56283</v>
       </c>
@@ -31425,7 +31375,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:18">
       <c r="A530" s="1">
         <v>56284</v>
       </c>
@@ -31481,7 +31431,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:18">
       <c r="A531" s="1">
         <v>56289</v>
       </c>
@@ -31537,7 +31487,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:18">
       <c r="A532" s="1">
         <v>56290</v>
       </c>
@@ -31593,7 +31543,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:18">
       <c r="A533" s="1">
         <v>56291</v>
       </c>
@@ -31649,7 +31599,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:18">
       <c r="A534" s="1">
         <v>56292</v>
       </c>
@@ -31705,7 +31655,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:18">
       <c r="A535" s="1">
         <v>56293</v>
       </c>
@@ -31761,7 +31711,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:18">
       <c r="A536" s="1">
         <v>56294</v>
       </c>
@@ -31817,7 +31767,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:18">
       <c r="A537" s="1">
         <v>56295</v>
       </c>
@@ -31873,7 +31823,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:18">
       <c r="A538" s="1">
         <v>56296</v>
       </c>
@@ -31929,7 +31879,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:18">
       <c r="A539" s="1">
         <v>56299</v>
       </c>
@@ -31985,7 +31935,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:18">
       <c r="A540" s="1">
         <v>56323</v>
       </c>
@@ -32041,7 +31991,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:18">
       <c r="A541" s="1">
         <v>56324</v>
       </c>
@@ -32097,7 +32047,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:18">
       <c r="A542" s="1">
         <v>56325</v>
       </c>
@@ -32153,7 +32103,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:18">
       <c r="A543" s="1">
         <v>56326</v>
       </c>
@@ -32209,7 +32159,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:18">
       <c r="A544" s="1">
         <v>56327</v>
       </c>
@@ -32265,7 +32215,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:18">
       <c r="A545" s="1">
         <v>56328</v>
       </c>
@@ -32321,7 +32271,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:18">
       <c r="A546" s="1">
         <v>56329</v>
       </c>
@@ -32377,7 +32327,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:18">
       <c r="A547" s="1">
         <v>56330</v>
       </c>
@@ -32433,7 +32383,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:18">
       <c r="A548" s="1">
         <v>56331</v>
       </c>
@@ -32489,7 +32439,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:18">
       <c r="A549" s="1">
         <v>56333</v>
       </c>
@@ -32545,7 +32495,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:18">
       <c r="A550" s="1">
         <v>56334</v>
       </c>
@@ -32601,7 +32551,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:18">
       <c r="A551" s="1">
         <v>56335</v>
       </c>
@@ -32657,7 +32607,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:18">
       <c r="A552" s="1">
         <v>56336</v>
       </c>
@@ -32713,7 +32663,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:18">
       <c r="A553" s="1">
         <v>56337</v>
       </c>
@@ -32769,7 +32719,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:18">
       <c r="A554" s="1">
         <v>56340</v>
       </c>
@@ -32825,7 +32775,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:18">
       <c r="A555" s="1">
         <v>56341</v>
       </c>
@@ -32881,7 +32831,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:18">
       <c r="A556" s="1">
         <v>56342</v>
       </c>
@@ -32937,7 +32887,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:18">
       <c r="A557" s="1">
         <v>56343</v>
       </c>
@@ -32993,7 +32943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:18">
       <c r="A558" s="1">
         <v>56344</v>
       </c>
@@ -33049,7 +32999,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:18">
       <c r="A559" s="1">
         <v>56345</v>
       </c>
@@ -33105,7 +33055,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:18">
       <c r="A560" s="1">
         <v>56370</v>
       </c>
@@ -33161,7 +33111,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:18">
       <c r="A561" s="1">
         <v>56373</v>
       </c>
@@ -33217,7 +33167,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:18">
       <c r="A562" s="1">
         <v>56376</v>
       </c>
@@ -33273,7 +33223,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:18">
       <c r="A563" s="1">
         <v>56383</v>
       </c>
@@ -33329,7 +33279,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:18">
       <c r="A564" s="1">
         <v>56384</v>
       </c>
@@ -33385,7 +33335,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:18">
       <c r="A565" s="1">
         <v>56385</v>
       </c>
@@ -33441,7 +33391,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:18">
       <c r="A566" s="1">
         <v>56386</v>
       </c>
@@ -33497,7 +33447,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:18">
       <c r="A567" s="1">
         <v>56387</v>
       </c>
@@ -33553,7 +33503,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:18">
       <c r="A568" s="1">
         <v>56394</v>
       </c>
@@ -33609,7 +33559,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:18">
       <c r="A569" s="1">
         <v>56395</v>
       </c>
@@ -33665,7 +33615,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:18">
       <c r="A570" s="1">
         <v>56396</v>
       </c>
@@ -33721,7 +33671,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:18">
       <c r="A571" s="1">
         <v>56397</v>
       </c>
@@ -33777,7 +33727,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:18">
       <c r="A572" s="1">
         <v>56398</v>
       </c>
@@ -33833,7 +33783,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:18">
       <c r="A573" s="1">
         <v>56399</v>
       </c>
@@ -33889,7 +33839,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:18">
       <c r="A574" s="1">
         <v>56400</v>
       </c>
@@ -33945,7 +33895,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:18">
       <c r="A575" s="1">
         <v>56401</v>
       </c>
@@ -34001,7 +33951,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:18">
       <c r="A576" s="1">
         <v>56402</v>
       </c>
@@ -34057,7 +34007,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:18">
       <c r="A577" s="1">
         <v>56403</v>
       </c>
@@ -34113,7 +34063,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:18">
       <c r="A578" s="1">
         <v>56404</v>
       </c>
@@ -34169,7 +34119,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:18">
       <c r="A579" s="1">
         <v>56479</v>
       </c>
@@ -34225,7 +34175,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:18">
       <c r="A580" s="1">
         <v>56483</v>
       </c>
@@ -34281,7 +34231,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:18">
       <c r="A581" s="1">
         <v>56484</v>
       </c>
@@ -34337,7 +34287,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:18">
       <c r="A582" s="1">
         <v>56495</v>
       </c>
@@ -34393,7 +34343,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:18">
       <c r="A583" s="1">
         <v>56496</v>
       </c>
@@ -34449,7 +34399,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:18">
       <c r="A584" s="1">
         <v>56497</v>
       </c>
@@ -34505,7 +34455,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:18">
       <c r="A585" s="1">
         <v>56498</v>
       </c>
@@ -34561,7 +34511,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:18">
       <c r="A586" s="1">
         <v>56499</v>
       </c>
@@ -34617,7 +34567,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:18">
       <c r="A587" s="1">
         <v>56500</v>
       </c>
@@ -34673,7 +34623,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:18">
       <c r="A588" s="1">
         <v>56501</v>
       </c>
@@ -34729,7 +34679,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:18">
       <c r="A589" s="1">
         <v>56502</v>
       </c>
@@ -34785,7 +34735,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:18">
       <c r="A590" s="1">
         <v>56503</v>
       </c>
@@ -34841,7 +34791,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:18">
       <c r="A591" s="1">
         <v>56505</v>
       </c>
@@ -34897,7 +34847,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:18">
       <c r="A592" s="1">
         <v>56506</v>
       </c>
@@ -34953,7 +34903,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:18">
       <c r="A593" s="1">
         <v>56537</v>
       </c>
@@ -35009,7 +34959,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:18">
       <c r="A594" s="1">
         <v>56538</v>
       </c>
@@ -35065,7 +35015,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:18">
       <c r="A595" s="1">
         <v>56539</v>
       </c>
@@ -35121,7 +35071,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:18">
       <c r="A596" s="1">
         <v>56543</v>
       </c>
@@ -35177,7 +35127,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:18">
       <c r="A597" s="1">
         <v>56544</v>
       </c>
@@ -35233,7 +35183,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:18">
       <c r="A598" s="1">
         <v>56545</v>
       </c>
@@ -35289,7 +35239,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:18">
       <c r="A599" s="1">
         <v>56593</v>
       </c>
@@ -35345,7 +35295,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:18">
       <c r="A600" s="1">
         <v>56597</v>
       </c>
@@ -35401,7 +35351,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:18">
       <c r="A601" s="1">
         <v>56600</v>
       </c>
@@ -35457,7 +35407,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:18">
       <c r="A602" s="1">
         <v>56606</v>
       </c>
@@ -35513,7 +35463,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:18">
       <c r="A603" s="1">
         <v>56683</v>
       </c>
@@ -35569,7 +35519,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:18">
       <c r="A604" s="1">
         <v>56718</v>
       </c>
@@ -35625,7 +35575,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:18">
       <c r="A605" s="1">
         <v>56719</v>
       </c>
@@ -35681,7 +35631,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:18">
       <c r="A606" s="1">
         <v>56721</v>
       </c>
@@ -35737,7 +35687,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:18">
       <c r="A607" s="1">
         <v>56722</v>
       </c>
@@ -35793,7 +35743,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:18">
       <c r="A608" s="1">
         <v>56723</v>
       </c>
@@ -35849,7 +35799,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:18">
       <c r="A609" s="1">
         <v>56726</v>
       </c>
@@ -35905,7 +35855,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:18">
       <c r="A610" s="1">
         <v>56751</v>
       </c>
@@ -35961,7 +35911,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:18">
       <c r="A611" s="1">
         <v>56752</v>
       </c>
@@ -36017,7 +35967,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:18">
       <c r="A612" s="1">
         <v>56753</v>
       </c>
@@ -36073,7 +36023,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:18">
       <c r="A613" s="1">
         <v>56755</v>
       </c>
@@ -36129,7 +36079,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:18">
       <c r="A614" s="1">
         <v>56756</v>
       </c>
@@ -36185,7 +36135,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:18">
       <c r="A615" s="1">
         <v>56758</v>
       </c>
@@ -36241,7 +36191,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:18">
       <c r="A616" s="1">
         <v>56759</v>
       </c>
@@ -36297,7 +36247,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:18">
       <c r="A617" s="1">
         <v>56760</v>
       </c>
@@ -36353,7 +36303,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:18">
       <c r="A618" s="1">
         <v>56761</v>
       </c>
@@ -36409,7 +36359,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:18">
       <c r="A619" s="1">
         <v>56762</v>
       </c>
@@ -36465,7 +36415,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:18">
       <c r="A620" s="1">
         <v>56768</v>
       </c>
@@ -36521,7 +36471,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:18">
       <c r="A621" s="1">
         <v>56793</v>
       </c>
@@ -36577,7 +36527,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:18">
       <c r="A622" s="1">
         <v>56794</v>
       </c>
@@ -36633,7 +36583,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:18">
       <c r="A623" s="1">
         <v>56859</v>
       </c>
@@ -36689,7 +36639,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:18">
       <c r="A624" s="1">
         <v>56860</v>
       </c>
